--- a/80.xlsx
+++ b/80.xlsx
@@ -11,28 +11,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Заявка 80 от </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Заявка #80</t>
+  </si>
+  <si>
+    <t>Дата подачи заявки</t>
   </si>
   <si>
     <t>Заявитель</t>
   </si>
   <si>
     <t>Сергей Александрович Воронов</t>
+  </si>
+  <si>
+    <t>Категория заявки</t>
+  </si>
+  <si>
+    <t>Электротехнические работы</t>
+  </si>
+  <si>
+    <t>Содержание заявки</t>
+  </si>
+  <si>
+    <t>Ремонт светильника</t>
+  </si>
+  <si>
+    <t>Ремонт розеток</t>
+  </si>
+  <si>
+    <t>Ремонт выключателей</t>
+  </si>
+  <si>
+    <t>Ремонт электрообогревателя</t>
+  </si>
+  <si>
+    <t>Срок исполнения</t>
+  </si>
+  <si>
+    <t>Кабинет</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Исполнители</t>
+  </si>
+  <si>
+    <t>Андрей Иванович Быков</t>
+  </si>
+  <si>
+    <t>Статус заявки</t>
+  </si>
+  <si>
+    <t>Отклонена</t>
+  </si>
+  <si>
+    <t>Причина отклонения заявки</t>
+  </si>
+  <si>
+    <t>Не подлежит ремонту</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="[$-409]m/d/yy" numFmtId="164"/>
     <numFmt formatCode="dd.mm.yyyy, HH:mm" numFmtId="165"/>
+    <numFmt formatCode="dd.mm.yyyy" numFmtId="166"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="25"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -46,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -69,23 +127,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf applyFont="1" fontId="0"/>
     <xf applyBorder="1" borderId="1"/>
     <xf applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyNumberFormat="1" numFmtId="164"/>
     <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
     <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="2"/>
+    <xf applyBorder="1" borderId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="166" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -94,40 +171,168 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="50" customHeight="1">
+    <row r="1" spans="1:2" ht="40" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>43307.2887475</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" ht="30" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1"/>
-    <row r="5" ht="30" customHeight="1"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>43307.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B8"/>
+    <mergeCell ref="B9:B9"/>
+    <mergeCell ref="B10:B10"/>
+    <mergeCell ref="B11:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
